--- a/sequences/06_retrieval_2.xlsx
+++ b/sequences/06_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1944,6 +1944,30 @@
       <c r="F4" t="s">
         <v>207</v>
       </c>
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -2184,6 +2208,30 @@
       <c r="F10" t="s">
         <v>207</v>
       </c>
+      <c r="G10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" t="s">
+        <v>207</v>
+      </c>
+      <c r="M10" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2468,6 +2516,30 @@
       <c r="F17" t="s">
         <v>207</v>
       </c>
+      <c r="G17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" t="s">
+        <v>207</v>
+      </c>
+      <c r="M17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2576,6 +2648,30 @@
       <c r="F20" t="s">
         <v>207</v>
       </c>
+      <c r="G20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2640,6 +2736,30 @@
       <c r="F22" t="s">
         <v>207</v>
       </c>
+      <c r="G22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2704,6 +2824,30 @@
       <c r="F24" t="s">
         <v>207</v>
       </c>
+      <c r="G24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="s">
+        <v>207</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2856,6 +3000,30 @@
       <c r="F28" t="s">
         <v>207</v>
       </c>
+      <c r="G28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
@@ -2964,6 +3132,30 @@
       <c r="F31" t="s">
         <v>207</v>
       </c>
+      <c r="G31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" t="s">
+        <v>207</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" t="s">
+        <v>207</v>
+      </c>
+      <c r="L31" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" t="s">
+        <v>207</v>
+      </c>
+      <c r="N31" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -2984,6 +3176,30 @@
       <c r="F32" t="s">
         <v>207</v>
       </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N32" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -3048,6 +3264,30 @@
       <c r="F34" t="s">
         <v>207</v>
       </c>
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" t="s">
+        <v>207</v>
+      </c>
+      <c r="N34" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3156,6 +3396,30 @@
       <c r="F37" t="s">
         <v>207</v>
       </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" t="s">
+        <v>207</v>
+      </c>
+      <c r="N37" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3396,6 +3660,30 @@
       <c r="F43" t="s">
         <v>207</v>
       </c>
+      <c r="G43" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" t="s">
+        <v>207</v>
+      </c>
+      <c r="J43" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" t="s">
+        <v>207</v>
+      </c>
+      <c r="L43" t="s">
+        <v>207</v>
+      </c>
+      <c r="M43" t="s">
+        <v>207</v>
+      </c>
+      <c r="N43" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3548,6 +3836,30 @@
       <c r="F47" t="s">
         <v>207</v>
       </c>
+      <c r="G47" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" t="s">
+        <v>207</v>
+      </c>
+      <c r="J47" t="s">
+        <v>207</v>
+      </c>
+      <c r="K47" t="s">
+        <v>207</v>
+      </c>
+      <c r="L47" t="s">
+        <v>207</v>
+      </c>
+      <c r="M47" t="s">
+        <v>207</v>
+      </c>
+      <c r="N47" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3568,6 +3880,30 @@
       <c r="F48" t="s">
         <v>207</v>
       </c>
+      <c r="G48" t="s">
+        <v>207</v>
+      </c>
+      <c r="H48" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" t="s">
+        <v>207</v>
+      </c>
+      <c r="J48" t="s">
+        <v>207</v>
+      </c>
+      <c r="K48" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" t="s">
+        <v>207</v>
+      </c>
+      <c r="M48" t="s">
+        <v>207</v>
+      </c>
+      <c r="N48" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3808,6 +4144,30 @@
       <c r="F54" t="s">
         <v>207</v>
       </c>
+      <c r="G54" t="s">
+        <v>207</v>
+      </c>
+      <c r="H54" t="s">
+        <v>207</v>
+      </c>
+      <c r="I54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J54" t="s">
+        <v>207</v>
+      </c>
+      <c r="K54" t="s">
+        <v>207</v>
+      </c>
+      <c r="L54" t="s">
+        <v>207</v>
+      </c>
+      <c r="M54" t="s">
+        <v>207</v>
+      </c>
+      <c r="N54" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3872,6 +4232,30 @@
       <c r="F56" t="s">
         <v>207</v>
       </c>
+      <c r="G56" t="s">
+        <v>207</v>
+      </c>
+      <c r="H56" t="s">
+        <v>207</v>
+      </c>
+      <c r="I56" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" t="s">
+        <v>207</v>
+      </c>
+      <c r="K56" t="s">
+        <v>207</v>
+      </c>
+      <c r="L56" t="s">
+        <v>207</v>
+      </c>
+      <c r="M56" t="s">
+        <v>207</v>
+      </c>
+      <c r="N56" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3892,6 +4276,30 @@
       <c r="F57" t="s">
         <v>207</v>
       </c>
+      <c r="G57" t="s">
+        <v>207</v>
+      </c>
+      <c r="H57" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" t="s">
+        <v>207</v>
+      </c>
+      <c r="J57" t="s">
+        <v>207</v>
+      </c>
+      <c r="K57" t="s">
+        <v>207</v>
+      </c>
+      <c r="L57" t="s">
+        <v>207</v>
+      </c>
+      <c r="M57" t="s">
+        <v>207</v>
+      </c>
+      <c r="N57" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
@@ -4000,6 +4408,30 @@
       <c r="F60" t="s">
         <v>207</v>
       </c>
+      <c r="G60" t="s">
+        <v>207</v>
+      </c>
+      <c r="H60" t="s">
+        <v>207</v>
+      </c>
+      <c r="I60" t="s">
+        <v>207</v>
+      </c>
+      <c r="J60" t="s">
+        <v>207</v>
+      </c>
+      <c r="K60" t="s">
+        <v>207</v>
+      </c>
+      <c r="L60" t="s">
+        <v>207</v>
+      </c>
+      <c r="M60" t="s">
+        <v>207</v>
+      </c>
+      <c r="N60" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
@@ -4108,6 +4540,30 @@
       <c r="F63" t="s">
         <v>207</v>
       </c>
+      <c r="G63" t="s">
+        <v>207</v>
+      </c>
+      <c r="H63" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
+        <v>207</v>
+      </c>
+      <c r="J63" t="s">
+        <v>207</v>
+      </c>
+      <c r="K63" t="s">
+        <v>207</v>
+      </c>
+      <c r="L63" t="s">
+        <v>207</v>
+      </c>
+      <c r="M63" t="s">
+        <v>207</v>
+      </c>
+      <c r="N63" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4216,6 +4672,30 @@
       <c r="F66" t="s">
         <v>207</v>
       </c>
+      <c r="G66" t="s">
+        <v>207</v>
+      </c>
+      <c r="H66" t="s">
+        <v>207</v>
+      </c>
+      <c r="I66" t="s">
+        <v>207</v>
+      </c>
+      <c r="J66" t="s">
+        <v>207</v>
+      </c>
+      <c r="K66" t="s">
+        <v>207</v>
+      </c>
+      <c r="L66" t="s">
+        <v>207</v>
+      </c>
+      <c r="M66" t="s">
+        <v>207</v>
+      </c>
+      <c r="N66" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4280,6 +4760,30 @@
       <c r="F68" t="s">
         <v>207</v>
       </c>
+      <c r="G68" t="s">
+        <v>207</v>
+      </c>
+      <c r="H68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" t="s">
+        <v>207</v>
+      </c>
+      <c r="L68" t="s">
+        <v>207</v>
+      </c>
+      <c r="M68" t="s">
+        <v>207</v>
+      </c>
+      <c r="N68" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4388,6 +4892,30 @@
       <c r="F71" t="s">
         <v>207</v>
       </c>
+      <c r="G71" t="s">
+        <v>207</v>
+      </c>
+      <c r="H71" t="s">
+        <v>207</v>
+      </c>
+      <c r="I71" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" t="s">
+        <v>207</v>
+      </c>
+      <c r="L71" t="s">
+        <v>207</v>
+      </c>
+      <c r="M71" t="s">
+        <v>207</v>
+      </c>
+      <c r="N71" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4672,6 +5200,30 @@
       <c r="F78" t="s">
         <v>207</v>
       </c>
+      <c r="G78" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" t="s">
+        <v>207</v>
+      </c>
+      <c r="I78" t="s">
+        <v>207</v>
+      </c>
+      <c r="J78" t="s">
+        <v>207</v>
+      </c>
+      <c r="K78" t="s">
+        <v>207</v>
+      </c>
+      <c r="L78" t="s">
+        <v>207</v>
+      </c>
+      <c r="M78" t="s">
+        <v>207</v>
+      </c>
+      <c r="N78" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4912,6 +5464,30 @@
       <c r="F84" t="s">
         <v>207</v>
       </c>
+      <c r="G84" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84" t="s">
+        <v>207</v>
+      </c>
+      <c r="I84" t="s">
+        <v>207</v>
+      </c>
+      <c r="J84" t="s">
+        <v>207</v>
+      </c>
+      <c r="K84" t="s">
+        <v>207</v>
+      </c>
+      <c r="L84" t="s">
+        <v>207</v>
+      </c>
+      <c r="M84" t="s">
+        <v>207</v>
+      </c>
+      <c r="N84" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -5020,6 +5596,30 @@
       <c r="F87" t="s">
         <v>207</v>
       </c>
+      <c r="G87" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" t="s">
+        <v>207</v>
+      </c>
+      <c r="I87" t="s">
+        <v>207</v>
+      </c>
+      <c r="J87" t="s">
+        <v>207</v>
+      </c>
+      <c r="K87" t="s">
+        <v>207</v>
+      </c>
+      <c r="L87" t="s">
+        <v>207</v>
+      </c>
+      <c r="M87" t="s">
+        <v>207</v>
+      </c>
+      <c r="N87" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -5040,6 +5640,30 @@
       <c r="F88" t="s">
         <v>207</v>
       </c>
+      <c r="G88" t="s">
+        <v>207</v>
+      </c>
+      <c r="H88" t="s">
+        <v>207</v>
+      </c>
+      <c r="I88" t="s">
+        <v>207</v>
+      </c>
+      <c r="J88" t="s">
+        <v>207</v>
+      </c>
+      <c r="K88" t="s">
+        <v>207</v>
+      </c>
+      <c r="L88" t="s">
+        <v>207</v>
+      </c>
+      <c r="M88" t="s">
+        <v>207</v>
+      </c>
+      <c r="N88" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5060,6 +5684,30 @@
       <c r="F89" t="s">
         <v>207</v>
       </c>
+      <c r="G89" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" t="s">
+        <v>207</v>
+      </c>
+      <c r="I89" t="s">
+        <v>207</v>
+      </c>
+      <c r="J89" t="s">
+        <v>207</v>
+      </c>
+      <c r="K89" t="s">
+        <v>207</v>
+      </c>
+      <c r="L89" t="s">
+        <v>207</v>
+      </c>
+      <c r="M89" t="s">
+        <v>207</v>
+      </c>
+      <c r="N89" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5124,6 +5772,30 @@
       <c r="F91" t="s">
         <v>207</v>
       </c>
+      <c r="G91" t="s">
+        <v>207</v>
+      </c>
+      <c r="H91" t="s">
+        <v>207</v>
+      </c>
+      <c r="I91" t="s">
+        <v>207</v>
+      </c>
+      <c r="J91" t="s">
+        <v>207</v>
+      </c>
+      <c r="K91" t="s">
+        <v>207</v>
+      </c>
+      <c r="L91" t="s">
+        <v>207</v>
+      </c>
+      <c r="M91" t="s">
+        <v>207</v>
+      </c>
+      <c r="N91" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5232,6 +5904,30 @@
       <c r="F94" t="s">
         <v>207</v>
       </c>
+      <c r="G94" t="s">
+        <v>207</v>
+      </c>
+      <c r="H94" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" t="s">
+        <v>207</v>
+      </c>
+      <c r="J94" t="s">
+        <v>207</v>
+      </c>
+      <c r="K94" t="s">
+        <v>207</v>
+      </c>
+      <c r="L94" t="s">
+        <v>207</v>
+      </c>
+      <c r="M94" t="s">
+        <v>207</v>
+      </c>
+      <c r="N94" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5252,6 +5948,30 @@
       <c r="F95" t="s">
         <v>207</v>
       </c>
+      <c r="G95" t="s">
+        <v>207</v>
+      </c>
+      <c r="H95" t="s">
+        <v>207</v>
+      </c>
+      <c r="I95" t="s">
+        <v>207</v>
+      </c>
+      <c r="J95" t="s">
+        <v>207</v>
+      </c>
+      <c r="K95" t="s">
+        <v>207</v>
+      </c>
+      <c r="L95" t="s">
+        <v>207</v>
+      </c>
+      <c r="M95" t="s">
+        <v>207</v>
+      </c>
+      <c r="N95" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5272,6 +5992,30 @@
       <c r="F96" t="s">
         <v>207</v>
       </c>
+      <c r="G96" t="s">
+        <v>207</v>
+      </c>
+      <c r="H96" t="s">
+        <v>207</v>
+      </c>
+      <c r="I96" t="s">
+        <v>207</v>
+      </c>
+      <c r="J96" t="s">
+        <v>207</v>
+      </c>
+      <c r="K96" t="s">
+        <v>207</v>
+      </c>
+      <c r="L96" t="s">
+        <v>207</v>
+      </c>
+      <c r="M96" t="s">
+        <v>207</v>
+      </c>
+      <c r="N96" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5292,6 +6036,30 @@
       <c r="F97" t="s">
         <v>207</v>
       </c>
+      <c r="G97" t="s">
+        <v>207</v>
+      </c>
+      <c r="H97" t="s">
+        <v>207</v>
+      </c>
+      <c r="I97" t="s">
+        <v>207</v>
+      </c>
+      <c r="J97" t="s">
+        <v>207</v>
+      </c>
+      <c r="K97" t="s">
+        <v>207</v>
+      </c>
+      <c r="L97" t="s">
+        <v>207</v>
+      </c>
+      <c r="M97" t="s">
+        <v>207</v>
+      </c>
+      <c r="N97" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5444,6 +6212,30 @@
       <c r="F101" t="s">
         <v>207</v>
       </c>
+      <c r="G101" t="s">
+        <v>207</v>
+      </c>
+      <c r="H101" t="s">
+        <v>207</v>
+      </c>
+      <c r="I101" t="s">
+        <v>207</v>
+      </c>
+      <c r="J101" t="s">
+        <v>207</v>
+      </c>
+      <c r="K101" t="s">
+        <v>207</v>
+      </c>
+      <c r="L101" t="s">
+        <v>207</v>
+      </c>
+      <c r="M101" t="s">
+        <v>207</v>
+      </c>
+      <c r="N101" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5508,6 +6300,30 @@
       <c r="F103" t="s">
         <v>207</v>
       </c>
+      <c r="G103" t="s">
+        <v>207</v>
+      </c>
+      <c r="H103" t="s">
+        <v>207</v>
+      </c>
+      <c r="I103" t="s">
+        <v>207</v>
+      </c>
+      <c r="J103" t="s">
+        <v>207</v>
+      </c>
+      <c r="K103" t="s">
+        <v>207</v>
+      </c>
+      <c r="L103" t="s">
+        <v>207</v>
+      </c>
+      <c r="M103" t="s">
+        <v>207</v>
+      </c>
+      <c r="N103" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5572,6 +6388,30 @@
       <c r="F105" t="s">
         <v>207</v>
       </c>
+      <c r="G105" t="s">
+        <v>207</v>
+      </c>
+      <c r="H105" t="s">
+        <v>207</v>
+      </c>
+      <c r="I105" t="s">
+        <v>207</v>
+      </c>
+      <c r="J105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K105" t="s">
+        <v>207</v>
+      </c>
+      <c r="L105" t="s">
+        <v>207</v>
+      </c>
+      <c r="M105" t="s">
+        <v>207</v>
+      </c>
+      <c r="N105" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5592,6 +6432,30 @@
       <c r="F106" t="s">
         <v>207</v>
       </c>
+      <c r="G106" t="s">
+        <v>207</v>
+      </c>
+      <c r="H106" t="s">
+        <v>207</v>
+      </c>
+      <c r="I106" t="s">
+        <v>207</v>
+      </c>
+      <c r="J106" t="s">
+        <v>207</v>
+      </c>
+      <c r="K106" t="s">
+        <v>207</v>
+      </c>
+      <c r="L106" t="s">
+        <v>207</v>
+      </c>
+      <c r="M106" t="s">
+        <v>207</v>
+      </c>
+      <c r="N106" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5700,6 +6564,30 @@
       <c r="F109" t="s">
         <v>207</v>
       </c>
+      <c r="G109" t="s">
+        <v>207</v>
+      </c>
+      <c r="H109" t="s">
+        <v>207</v>
+      </c>
+      <c r="I109" t="s">
+        <v>207</v>
+      </c>
+      <c r="J109" t="s">
+        <v>207</v>
+      </c>
+      <c r="K109" t="s">
+        <v>207</v>
+      </c>
+      <c r="L109" t="s">
+        <v>207</v>
+      </c>
+      <c r="M109" t="s">
+        <v>207</v>
+      </c>
+      <c r="N109" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -5852,6 +6740,30 @@
       <c r="F113" t="s">
         <v>207</v>
       </c>
+      <c r="G113" t="s">
+        <v>207</v>
+      </c>
+      <c r="H113" t="s">
+        <v>207</v>
+      </c>
+      <c r="I113" t="s">
+        <v>207</v>
+      </c>
+      <c r="J113" t="s">
+        <v>207</v>
+      </c>
+      <c r="K113" t="s">
+        <v>207</v>
+      </c>
+      <c r="L113" t="s">
+        <v>207</v>
+      </c>
+      <c r="M113" t="s">
+        <v>207</v>
+      </c>
+      <c r="N113" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -6092,6 +7004,30 @@
       <c r="F119" t="s">
         <v>207</v>
       </c>
+      <c r="G119" t="s">
+        <v>207</v>
+      </c>
+      <c r="H119" t="s">
+        <v>207</v>
+      </c>
+      <c r="I119" t="s">
+        <v>207</v>
+      </c>
+      <c r="J119" t="s">
+        <v>207</v>
+      </c>
+      <c r="K119" t="s">
+        <v>207</v>
+      </c>
+      <c r="L119" t="s">
+        <v>207</v>
+      </c>
+      <c r="M119" t="s">
+        <v>207</v>
+      </c>
+      <c r="N119" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6244,6 +7180,30 @@
       <c r="F123" t="s">
         <v>207</v>
       </c>
+      <c r="G123" t="s">
+        <v>207</v>
+      </c>
+      <c r="H123" t="s">
+        <v>207</v>
+      </c>
+      <c r="I123" t="s">
+        <v>207</v>
+      </c>
+      <c r="J123" t="s">
+        <v>207</v>
+      </c>
+      <c r="K123" t="s">
+        <v>207</v>
+      </c>
+      <c r="L123" t="s">
+        <v>207</v>
+      </c>
+      <c r="M123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N123" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6264,6 +7224,30 @@
       <c r="F124" t="s">
         <v>207</v>
       </c>
+      <c r="G124" t="s">
+        <v>207</v>
+      </c>
+      <c r="H124" t="s">
+        <v>207</v>
+      </c>
+      <c r="I124" t="s">
+        <v>207</v>
+      </c>
+      <c r="J124" t="s">
+        <v>207</v>
+      </c>
+      <c r="K124" t="s">
+        <v>207</v>
+      </c>
+      <c r="L124" t="s">
+        <v>207</v>
+      </c>
+      <c r="M124" t="s">
+        <v>207</v>
+      </c>
+      <c r="N124" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6328,6 +7312,30 @@
       <c r="F126" t="s">
         <v>207</v>
       </c>
+      <c r="G126" t="s">
+        <v>207</v>
+      </c>
+      <c r="H126" t="s">
+        <v>207</v>
+      </c>
+      <c r="I126" t="s">
+        <v>207</v>
+      </c>
+      <c r="J126" t="s">
+        <v>207</v>
+      </c>
+      <c r="K126" t="s">
+        <v>207</v>
+      </c>
+      <c r="L126" t="s">
+        <v>207</v>
+      </c>
+      <c r="M126" t="s">
+        <v>207</v>
+      </c>
+      <c r="N126" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6612,6 +7620,30 @@
       <c r="F133" t="s">
         <v>207</v>
       </c>
+      <c r="G133" t="s">
+        <v>207</v>
+      </c>
+      <c r="H133" t="s">
+        <v>207</v>
+      </c>
+      <c r="I133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J133" t="s">
+        <v>207</v>
+      </c>
+      <c r="K133" t="s">
+        <v>207</v>
+      </c>
+      <c r="L133" t="s">
+        <v>207</v>
+      </c>
+      <c r="M133" t="s">
+        <v>207</v>
+      </c>
+      <c r="N133" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6764,6 +7796,30 @@
       <c r="F137" t="s">
         <v>207</v>
       </c>
+      <c r="G137" t="s">
+        <v>207</v>
+      </c>
+      <c r="H137" t="s">
+        <v>207</v>
+      </c>
+      <c r="I137" t="s">
+        <v>207</v>
+      </c>
+      <c r="J137" t="s">
+        <v>207</v>
+      </c>
+      <c r="K137" t="s">
+        <v>207</v>
+      </c>
+      <c r="L137" t="s">
+        <v>207</v>
+      </c>
+      <c r="M137" t="s">
+        <v>207</v>
+      </c>
+      <c r="N137" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6872,6 +7928,30 @@
       <c r="F140" t="s">
         <v>207</v>
       </c>
+      <c r="G140" t="s">
+        <v>207</v>
+      </c>
+      <c r="H140" t="s">
+        <v>207</v>
+      </c>
+      <c r="I140" t="s">
+        <v>207</v>
+      </c>
+      <c r="J140" t="s">
+        <v>207</v>
+      </c>
+      <c r="K140" t="s">
+        <v>207</v>
+      </c>
+      <c r="L140" t="s">
+        <v>207</v>
+      </c>
+      <c r="M140" t="s">
+        <v>207</v>
+      </c>
+      <c r="N140" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -6980,6 +8060,30 @@
       <c r="F143" t="s">
         <v>207</v>
       </c>
+      <c r="G143" t="s">
+        <v>207</v>
+      </c>
+      <c r="H143" t="s">
+        <v>207</v>
+      </c>
+      <c r="I143" t="s">
+        <v>207</v>
+      </c>
+      <c r="J143" t="s">
+        <v>207</v>
+      </c>
+      <c r="K143" t="s">
+        <v>207</v>
+      </c>
+      <c r="L143" t="s">
+        <v>207</v>
+      </c>
+      <c r="M143" t="s">
+        <v>207</v>
+      </c>
+      <c r="N143" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
@@ -7000,6 +8104,30 @@
       <c r="F144" t="s">
         <v>207</v>
       </c>
+      <c r="G144" t="s">
+        <v>207</v>
+      </c>
+      <c r="H144" t="s">
+        <v>207</v>
+      </c>
+      <c r="I144" t="s">
+        <v>207</v>
+      </c>
+      <c r="J144" t="s">
+        <v>207</v>
+      </c>
+      <c r="K144" t="s">
+        <v>207</v>
+      </c>
+      <c r="L144" t="s">
+        <v>207</v>
+      </c>
+      <c r="M144" t="s">
+        <v>207</v>
+      </c>
+      <c r="N144" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7108,6 +8236,30 @@
       <c r="F147" t="s">
         <v>207</v>
       </c>
+      <c r="G147" t="s">
+        <v>207</v>
+      </c>
+      <c r="H147" t="s">
+        <v>207</v>
+      </c>
+      <c r="I147" t="s">
+        <v>207</v>
+      </c>
+      <c r="J147" t="s">
+        <v>207</v>
+      </c>
+      <c r="K147" t="s">
+        <v>207</v>
+      </c>
+      <c r="L147" t="s">
+        <v>207</v>
+      </c>
+      <c r="M147" t="s">
+        <v>207</v>
+      </c>
+      <c r="N147" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
@@ -7216,6 +8368,30 @@
       <c r="F150" t="s">
         <v>207</v>
       </c>
+      <c r="G150" t="s">
+        <v>207</v>
+      </c>
+      <c r="H150" t="s">
+        <v>207</v>
+      </c>
+      <c r="I150" t="s">
+        <v>207</v>
+      </c>
+      <c r="J150" t="s">
+        <v>207</v>
+      </c>
+      <c r="K150" t="s">
+        <v>207</v>
+      </c>
+      <c r="L150" t="s">
+        <v>207</v>
+      </c>
+      <c r="M150" t="s">
+        <v>207</v>
+      </c>
+      <c r="N150" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7368,6 +8544,30 @@
       <c r="F154" t="s">
         <v>207</v>
       </c>
+      <c r="G154" t="s">
+        <v>207</v>
+      </c>
+      <c r="H154" t="s">
+        <v>207</v>
+      </c>
+      <c r="I154" t="s">
+        <v>207</v>
+      </c>
+      <c r="J154" t="s">
+        <v>207</v>
+      </c>
+      <c r="K154" t="s">
+        <v>207</v>
+      </c>
+      <c r="L154" t="s">
+        <v>207</v>
+      </c>
+      <c r="M154" t="s">
+        <v>207</v>
+      </c>
+      <c r="N154" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7388,6 +8588,30 @@
       <c r="F155" t="s">
         <v>207</v>
       </c>
+      <c r="G155" t="s">
+        <v>207</v>
+      </c>
+      <c r="H155" t="s">
+        <v>207</v>
+      </c>
+      <c r="I155" t="s">
+        <v>207</v>
+      </c>
+      <c r="J155" t="s">
+        <v>207</v>
+      </c>
+      <c r="K155" t="s">
+        <v>207</v>
+      </c>
+      <c r="L155" t="s">
+        <v>207</v>
+      </c>
+      <c r="M155" t="s">
+        <v>207</v>
+      </c>
+      <c r="N155" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7408,6 +8632,30 @@
       <c r="F156" t="s">
         <v>207</v>
       </c>
+      <c r="G156" t="s">
+        <v>207</v>
+      </c>
+      <c r="H156" t="s">
+        <v>207</v>
+      </c>
+      <c r="I156" t="s">
+        <v>207</v>
+      </c>
+      <c r="J156" t="s">
+        <v>207</v>
+      </c>
+      <c r="K156" t="s">
+        <v>207</v>
+      </c>
+      <c r="L156" t="s">
+        <v>207</v>
+      </c>
+      <c r="M156" t="s">
+        <v>207</v>
+      </c>
+      <c r="N156" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7472,6 +8720,30 @@
       <c r="F158" t="s">
         <v>207</v>
       </c>
+      <c r="G158" t="s">
+        <v>207</v>
+      </c>
+      <c r="H158" t="s">
+        <v>207</v>
+      </c>
+      <c r="I158" t="s">
+        <v>207</v>
+      </c>
+      <c r="J158" t="s">
+        <v>207</v>
+      </c>
+      <c r="K158" t="s">
+        <v>207</v>
+      </c>
+      <c r="L158" t="s">
+        <v>207</v>
+      </c>
+      <c r="M158" t="s">
+        <v>207</v>
+      </c>
+      <c r="N158" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7712,6 +8984,30 @@
       <c r="F164" t="s">
         <v>207</v>
       </c>
+      <c r="G164" t="s">
+        <v>207</v>
+      </c>
+      <c r="H164" t="s">
+        <v>207</v>
+      </c>
+      <c r="I164" t="s">
+        <v>207</v>
+      </c>
+      <c r="J164" t="s">
+        <v>207</v>
+      </c>
+      <c r="K164" t="s">
+        <v>207</v>
+      </c>
+      <c r="L164" t="s">
+        <v>207</v>
+      </c>
+      <c r="M164" t="s">
+        <v>207</v>
+      </c>
+      <c r="N164" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7732,6 +9028,30 @@
       <c r="F165" t="s">
         <v>207</v>
       </c>
+      <c r="G165" t="s">
+        <v>207</v>
+      </c>
+      <c r="H165" t="s">
+        <v>207</v>
+      </c>
+      <c r="I165" t="s">
+        <v>207</v>
+      </c>
+      <c r="J165" t="s">
+        <v>207</v>
+      </c>
+      <c r="K165" t="s">
+        <v>207</v>
+      </c>
+      <c r="L165" t="s">
+        <v>207</v>
+      </c>
+      <c r="M165" t="s">
+        <v>207</v>
+      </c>
+      <c r="N165" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7752,6 +9072,30 @@
       <c r="F166" t="s">
         <v>207</v>
       </c>
+      <c r="G166" t="s">
+        <v>207</v>
+      </c>
+      <c r="H166" t="s">
+        <v>207</v>
+      </c>
+      <c r="I166" t="s">
+        <v>207</v>
+      </c>
+      <c r="J166" t="s">
+        <v>207</v>
+      </c>
+      <c r="K166" t="s">
+        <v>207</v>
+      </c>
+      <c r="L166" t="s">
+        <v>207</v>
+      </c>
+      <c r="M166" t="s">
+        <v>207</v>
+      </c>
+      <c r="N166" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -7992,6 +9336,30 @@
       <c r="F172" t="s">
         <v>207</v>
       </c>
+      <c r="G172" t="s">
+        <v>207</v>
+      </c>
+      <c r="H172" t="s">
+        <v>207</v>
+      </c>
+      <c r="I172" t="s">
+        <v>207</v>
+      </c>
+      <c r="J172" t="s">
+        <v>207</v>
+      </c>
+      <c r="K172" t="s">
+        <v>207</v>
+      </c>
+      <c r="L172" t="s">
+        <v>207</v>
+      </c>
+      <c r="M172" t="s">
+        <v>207</v>
+      </c>
+      <c r="N172" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -8056,6 +9424,30 @@
       <c r="F174" t="s">
         <v>207</v>
       </c>
+      <c r="G174" t="s">
+        <v>207</v>
+      </c>
+      <c r="H174" t="s">
+        <v>207</v>
+      </c>
+      <c r="I174" t="s">
+        <v>207</v>
+      </c>
+      <c r="J174" t="s">
+        <v>207</v>
+      </c>
+      <c r="K174" t="s">
+        <v>207</v>
+      </c>
+      <c r="L174" t="s">
+        <v>207</v>
+      </c>
+      <c r="M174" t="s">
+        <v>207</v>
+      </c>
+      <c r="N174" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8164,6 +9556,30 @@
       <c r="F177" t="s">
         <v>207</v>
       </c>
+      <c r="G177" t="s">
+        <v>207</v>
+      </c>
+      <c r="H177" t="s">
+        <v>207</v>
+      </c>
+      <c r="I177" t="s">
+        <v>207</v>
+      </c>
+      <c r="J177" t="s">
+        <v>207</v>
+      </c>
+      <c r="K177" t="s">
+        <v>207</v>
+      </c>
+      <c r="L177" t="s">
+        <v>207</v>
+      </c>
+      <c r="M177" t="s">
+        <v>207</v>
+      </c>
+      <c r="N177" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8272,6 +9688,30 @@
       <c r="F180" t="s">
         <v>207</v>
       </c>
+      <c r="G180" t="s">
+        <v>207</v>
+      </c>
+      <c r="H180" t="s">
+        <v>207</v>
+      </c>
+      <c r="I180" t="s">
+        <v>207</v>
+      </c>
+      <c r="J180" t="s">
+        <v>207</v>
+      </c>
+      <c r="K180" t="s">
+        <v>207</v>
+      </c>
+      <c r="L180" t="s">
+        <v>207</v>
+      </c>
+      <c r="M180" t="s">
+        <v>207</v>
+      </c>
+      <c r="N180" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8336,6 +9776,30 @@
       <c r="F182" t="s">
         <v>207</v>
       </c>
+      <c r="G182" t="s">
+        <v>207</v>
+      </c>
+      <c r="H182" t="s">
+        <v>207</v>
+      </c>
+      <c r="I182" t="s">
+        <v>207</v>
+      </c>
+      <c r="J182" t="s">
+        <v>207</v>
+      </c>
+      <c r="K182" t="s">
+        <v>207</v>
+      </c>
+      <c r="L182" t="s">
+        <v>207</v>
+      </c>
+      <c r="M182" t="s">
+        <v>207</v>
+      </c>
+      <c r="N182" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8532,6 +9996,30 @@
       <c r="F187" t="s">
         <v>207</v>
       </c>
+      <c r="G187" t="s">
+        <v>207</v>
+      </c>
+      <c r="H187" t="s">
+        <v>207</v>
+      </c>
+      <c r="I187" t="s">
+        <v>207</v>
+      </c>
+      <c r="J187" t="s">
+        <v>207</v>
+      </c>
+      <c r="K187" t="s">
+        <v>207</v>
+      </c>
+      <c r="L187" t="s">
+        <v>207</v>
+      </c>
+      <c r="M187" t="s">
+        <v>207</v>
+      </c>
+      <c r="N187" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8596,6 +10084,30 @@
       <c r="F189" t="s">
         <v>207</v>
       </c>
+      <c r="G189" t="s">
+        <v>207</v>
+      </c>
+      <c r="H189" t="s">
+        <v>207</v>
+      </c>
+      <c r="I189" t="s">
+        <v>207</v>
+      </c>
+      <c r="J189" t="s">
+        <v>207</v>
+      </c>
+      <c r="K189" t="s">
+        <v>207</v>
+      </c>
+      <c r="L189" t="s">
+        <v>207</v>
+      </c>
+      <c r="M189" t="s">
+        <v>207</v>
+      </c>
+      <c r="N189" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
@@ -8614,6 +10126,30 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
+        <v>207</v>
+      </c>
+      <c r="G190" t="s">
+        <v>207</v>
+      </c>
+      <c r="H190" t="s">
+        <v>207</v>
+      </c>
+      <c r="I190" t="s">
+        <v>207</v>
+      </c>
+      <c r="J190" t="s">
+        <v>207</v>
+      </c>
+      <c r="K190" t="s">
+        <v>207</v>
+      </c>
+      <c r="L190" t="s">
+        <v>207</v>
+      </c>
+      <c r="M190" t="s">
+        <v>207</v>
+      </c>
+      <c r="N190" t="s">
         <v>207</v>
       </c>
     </row>

--- a/sequences/06_retrieval_2.xlsx
+++ b/sequences/06_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>albern</t>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>drücken</t>
   </si>
   <si>
     <t>dauern</t>
   </si>
   <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
     <t>stärken</t>
   </si>
   <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>rechnen</t>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>betteln</t>
   </si>
   <si>
     <t>graben</t>
   </si>
   <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>stinken</t>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>sichern</t>
   </si>
   <si>
     <t>ärgern</t>
   </si>
   <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>spenden</t>
   </si>
   <si>
     <t>töten</t>
   </si>
   <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
     <t>klingen</t>
   </si>
   <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
     <t>reisen</t>
   </si>
   <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>ächzen</t>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>liefern</t>
   </si>
   <si>
     <t>binden</t>
   </si>
   <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>kennen</t>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>platzen</t>
   </si>
   <si>
     <t>ehren</t>
   </si>
   <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>teilen</t>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>fügen</t>
   </si>
   <si>
     <t>mauern</t>
   </si>
   <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>holen</t>
+    <t>seufzen</t>
   </si>
   <si>
     <t>fließen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>regnen</t>
   </si>
   <si>
     <t>dog/dog005.jpg</t>
